--- a/pred_ohlcv/54_21/2020-01-14 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 LTC ohlcv.xlsx
@@ -2628,7 +2628,7 @@
         <v>-730.10304865</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-476.0622479599999</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-467.3399479599998</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-467.3399479599998</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-459.5267479599999</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-459.5179479599998</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-459.5179479599998</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-494.4493479599998</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-494.3937441399999</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-358.2052441399999</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-72.96024413999987</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>209.5283558600001</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>172.2055558600001</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>320.5360558600001</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>318.6791558600002</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>443.2544558600001</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>430.7789558600001</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>431.0819558600001</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>421.5239558600001</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>482.9738891900001</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-94390.66551677001</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-94387.72161677001</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-94387.72161677001</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-94375.53161677001</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-94374.94081677</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-94378.06131677001</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-94452.43791677001</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-94761.01934616997</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-94554.77554616996</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-94654.77554616996</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-94654.77554616996</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-94654.77554616996</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-94660.96864616996</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-94631.16344616996</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-94703.67974616996</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-94653.67974616996</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-94653.67974616996</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-94668.74664616997</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-94667.74664616997</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-94667.74664616997</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-94675.09254616997</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-94674.74012326996</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-94686.88282326996</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-94714.76572326996</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-94694.76572326996</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-94708.75572326996</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-94703.13522326996</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-94705.02352326996</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-94806.07682326996</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-94806.07682326996</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-94806.01682326997</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-94786.01682326997</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-94826.01682326997</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-94825.99122326997</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-94829.41352326996</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-94830.13472326996</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-94838.24862326996</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-94836.38562326996</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-94940.05188143997</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-94940.06928143997</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-94940.06928143997</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-94940.06928143997</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-94940.06928143997</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-94940.06928143997</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-94938.78128143997</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-94938.78128143997</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-94885.07668143997</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-94884.79738143997</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-94884.79738143997</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-94884.79738143997</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-94884.79738143997</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-94664.16108143998</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-95049.68428143997</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-95339.78518143998</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-95344.04338143997</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-95364.05438143997</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-95800.24698143995</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 LTC ohlcv.xlsx
@@ -2628,7 +2628,7 @@
         <v>-730.10304865</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-476.0622479599999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-477.5757479599999</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-467.3399479599998</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-459.5267479599999</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-459.5179479599998</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-459.5179479599998</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-494.4493479599998</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-494.3937441399999</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-358.2052441399999</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-72.96024413999987</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>209.5283558600001</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>172.2055558600001</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>320.5360558600001</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>318.6791558600002</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>443.2544558600001</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>430.7789558600001</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>431.0819558600001</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>421.5239558600001</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>421.5239558600001</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>482.9738891900001</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>479.3528891900002</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-94388.10781677</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-94388.10781677</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-94390.66551677001</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-94387.72161677001</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-94387.72161677001</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-94375.53161677001</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-94374.94081677</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-94380.06131677001</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-94378.06131677001</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-94452.43791677001</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-94452.38097727</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-94925.50814616997</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-94915.30814616998</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-94915.20814616997</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-94913.53154616996</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-94913.53154616996</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-94913.15844616997</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-94913.15844616997</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-94932.00874616997</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-94932.00874616997</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-94761.01934616997</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-94719.35554616997</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-94720.14004616997</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-94780.14004616997</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-94714.87554616996</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-94664.87554616996</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-94554.77554616996</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-94654.77554616996</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-94654.77554616996</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-94654.77554616996</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-94660.96864616996</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-94631.16344616996</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-94703.67974616996</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-94653.67974616996</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-94653.67974616996</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-94668.74664616997</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-94667.74664616997</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-94667.74664616997</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-94675.09254616997</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-94674.74012326996</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-94686.88282326996</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-94714.76572326996</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-94694.76572326996</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-94708.75572326996</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-94703.13522326996</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-94705.02352326996</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-94806.07682326996</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-94806.07682326996</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-94806.01682326997</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-94786.01682326997</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-94826.01682326997</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-94825.99122326997</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-94827.69272326997</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-94829.41352326996</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-94830.13472326996</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-94838.24862326996</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-94836.38562326996</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-94940.05188143997</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-94940.06928143997</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-94940.06928143997</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-94940.06928143997</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-94940.06928143997</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-94940.06928143997</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-94938.78128143997</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-94938.78128143997</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-94885.07668143997</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-94884.79738143997</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-94884.79738143997</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-94884.79738143997</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-94884.79738143997</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-94664.16108143998</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-95049.68428143997</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-95339.78518143998</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-95344.04338143997</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-95364.05438143997</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-95800.24698143995</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-95960.34628143994</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
